--- a/Code/Results/Cases/Case_8_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.482192501454506</v>
+        <v>3.48352726478015</v>
       </c>
       <c r="C2">
-        <v>1.104415953869818</v>
+        <v>1.142806996049444</v>
       </c>
       <c r="D2">
-        <v>0.05216965865444223</v>
+        <v>0.05422682099590048</v>
       </c>
       <c r="E2">
-        <v>1.358354527121364</v>
+        <v>1.358510114352484</v>
       </c>
       <c r="F2">
-        <v>0.4558249970563892</v>
+        <v>0.4376036744449721</v>
       </c>
       <c r="G2">
-        <v>0.0007879299203738561</v>
+        <v>0.001252503005149321</v>
       </c>
       <c r="H2">
-        <v>0.01165384447337323</v>
+        <v>0.01167107755570013</v>
       </c>
       <c r="I2">
-        <v>0.005138853106824381</v>
+        <v>0.005368009630849713</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1514323808293465</v>
+        <v>0.1416941346186924</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1019448949296855</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02144225779027131</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.252581487467666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.192258618185519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.035761743165097</v>
+        <v>3.040156641269903</v>
       </c>
       <c r="C3">
-        <v>0.9700045256135184</v>
+        <v>0.9974144275566061</v>
       </c>
       <c r="D3">
-        <v>0.04653895520160489</v>
+        <v>0.04768867671733545</v>
       </c>
       <c r="E3">
-        <v>1.183683199604545</v>
+        <v>1.18599324689967</v>
       </c>
       <c r="F3">
-        <v>0.4197242628080602</v>
+        <v>0.4042674421074466</v>
       </c>
       <c r="G3">
-        <v>0.0007914426868034727</v>
+        <v>0.000372370116078255</v>
       </c>
       <c r="H3">
-        <v>0.008361234876404861</v>
+        <v>0.00859394779321862</v>
       </c>
       <c r="I3">
-        <v>0.003313979401607714</v>
+        <v>0.003822178530388687</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1596687320786412</v>
+        <v>0.1494831055720187</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1077175794904992</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02235411571242807</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.178782691583223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.125123312987185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.761304267477499</v>
+        <v>2.767349427484817</v>
       </c>
       <c r="C4">
-        <v>0.8879544889718431</v>
+        <v>0.9088265137857832</v>
       </c>
       <c r="D4">
-        <v>0.04308848558380873</v>
+        <v>0.04369370069733947</v>
       </c>
       <c r="E4">
-        <v>1.076732939659578</v>
+        <v>1.080245032110767</v>
       </c>
       <c r="F4">
-        <v>0.3981961863464036</v>
+        <v>0.3841215063746546</v>
       </c>
       <c r="G4">
-        <v>0.000793668103821427</v>
+        <v>8.299626104157909E-05</v>
       </c>
       <c r="H4">
-        <v>0.006554169637351448</v>
+        <v>0.006882857574271872</v>
       </c>
       <c r="I4">
-        <v>0.002408702415702901</v>
+        <v>0.003021264187163641</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1651391426484121</v>
+        <v>0.1545231454781373</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1114781549297028</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02340414359662146</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.135425034904344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.084786787887083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.649324672148964</v>
+        <v>2.655993279823065</v>
       </c>
       <c r="C5">
-        <v>0.8559684718930782</v>
+        <v>0.8741913854627228</v>
       </c>
       <c r="D5">
-        <v>0.04175297869287675</v>
+        <v>0.04213761524626136</v>
       </c>
       <c r="E5">
-        <v>1.033189792094618</v>
+        <v>1.037166744065473</v>
       </c>
       <c r="F5">
-        <v>0.388972457882133</v>
+        <v>0.3754186479895765</v>
       </c>
       <c r="G5">
-        <v>0.0007945966513459656</v>
+        <v>2.363102805788553E-05</v>
       </c>
       <c r="H5">
-        <v>0.005866065324000691</v>
+        <v>0.00622560674799677</v>
       </c>
       <c r="I5">
-        <v>0.00214665675212089</v>
+        <v>0.002798247508290608</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1671806012941559</v>
+        <v>0.1563789504619404</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1129088577775939</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02391142742488395</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.116238401952955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.066690425939655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630688671346036</v>
+        <v>2.637458878323628</v>
       </c>
       <c r="C6">
-        <v>0.8523096419108356</v>
+        <v>0.8700489162839631</v>
       </c>
       <c r="D6">
-        <v>0.04161618776898734</v>
+        <v>0.04196208014912628</v>
       </c>
       <c r="E6">
-        <v>1.025945140129949</v>
+        <v>1.029999711576949</v>
       </c>
       <c r="F6">
-        <v>0.3867183564163597</v>
+        <v>0.3732869766242999</v>
       </c>
       <c r="G6">
-        <v>0.0007947569255539362</v>
+        <v>1.70308681568393E-05</v>
       </c>
       <c r="H6">
-        <v>0.005753165057170273</v>
+        <v>0.006117495346613877</v>
       </c>
       <c r="I6">
-        <v>0.002183137766532006</v>
+        <v>0.002856454718904722</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1671770073465257</v>
+        <v>0.1563755875555159</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1129605566587664</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02395223696332538</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.110670959581299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.061430206185577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.75969842255023</v>
+        <v>2.765629410211034</v>
       </c>
       <c r="C7">
-        <v>0.892031272414556</v>
+        <v>0.9103338565359138</v>
       </c>
       <c r="D7">
-        <v>0.04330303113927414</v>
+        <v>0.04432849068329148</v>
       </c>
       <c r="E7">
-        <v>1.076098877072511</v>
+        <v>1.079506950291659</v>
       </c>
       <c r="F7">
-        <v>0.3960728911625679</v>
+        <v>0.3786764982263549</v>
       </c>
       <c r="G7">
-        <v>0.0007936939468171089</v>
+        <v>0.0002034759720259682</v>
       </c>
       <c r="H7">
-        <v>0.006540356037480322</v>
+        <v>0.006859066224786214</v>
       </c>
       <c r="I7">
-        <v>0.002600422732802699</v>
+        <v>0.003244165615754468</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1642167222373132</v>
+        <v>0.1527303355150291</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1104363063832441</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02308607488168102</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.128584650641187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.067133345987401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.328190935411612</v>
+        <v>3.330204901598108</v>
       </c>
       <c r="C8">
-        <v>1.063990844635697</v>
+        <v>1.090277405005395</v>
       </c>
       <c r="D8">
-        <v>0.050537900302011</v>
+        <v>0.05373612820675788</v>
       </c>
       <c r="E8">
-        <v>1.297990132428609</v>
+        <v>1.298531667997324</v>
       </c>
       <c r="F8">
-        <v>0.4405883040804071</v>
+        <v>0.4121751438396686</v>
       </c>
       <c r="G8">
-        <v>0.0007891434035056777</v>
+        <v>0.002020830540415908</v>
       </c>
       <c r="H8">
-        <v>0.01046456301545209</v>
+        <v>0.0105227540243219</v>
       </c>
       <c r="I8">
-        <v>0.00469265342361247</v>
+        <v>0.005040690290318395</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1529416772262167</v>
+        <v>0.1401904200985626</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1017462958915178</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02064270036579696</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.217996818450473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.123847513108245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.441474820185476</v>
+        <v>4.434036373073013</v>
       </c>
       <c r="C9">
-        <v>1.397480379380511</v>
+        <v>1.449829698141514</v>
       </c>
       <c r="D9">
-        <v>0.06437410818608669</v>
+        <v>0.07036657097541621</v>
       </c>
       <c r="E9">
-        <v>1.736597265506347</v>
+        <v>1.730761592315744</v>
       </c>
       <c r="F9">
-        <v>0.5371672547493063</v>
+        <v>0.4966107739264487</v>
       </c>
       <c r="G9">
-        <v>0.0007807277654205969</v>
+        <v>0.00586312848098558</v>
       </c>
       <c r="H9">
-        <v>0.02008192068118064</v>
+        <v>0.01933849211986516</v>
       </c>
       <c r="I9">
-        <v>0.01041967842960201</v>
+        <v>0.00955232700239339</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1360491328029934</v>
+        <v>0.1227048356509091</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08921091206609155</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02081067603830888</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.42251594644398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.294593822450878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.258965699893338</v>
+        <v>5.242050540965067</v>
       </c>
       <c r="C10">
-        <v>1.643291074063939</v>
+        <v>1.698351949485357</v>
       </c>
       <c r="D10">
-        <v>0.07610327142844397</v>
+        <v>0.0869371268852035</v>
       </c>
       <c r="E10">
-        <v>1.95990561266828</v>
+        <v>1.948109841153695</v>
       </c>
       <c r="F10">
-        <v>0.6009637335728968</v>
+        <v>0.5313238769549784</v>
       </c>
       <c r="G10">
-        <v>0.0007750162676596016</v>
+        <v>0.01661821497022054</v>
       </c>
       <c r="H10">
-        <v>0.02787274928797201</v>
+        <v>0.02623137534920161</v>
       </c>
       <c r="I10">
-        <v>0.01603796416120318</v>
+        <v>0.01375073560993645</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1228267505200389</v>
+        <v>0.1044926961887764</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07866554402792225</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02059138712130704</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.548720751113621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.331692234563121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.622807735492188</v>
+        <v>5.601741816456865</v>
       </c>
       <c r="C11">
-        <v>1.718420344980416</v>
+        <v>1.729611011964039</v>
       </c>
       <c r="D11">
-        <v>0.09470930420610557</v>
+        <v>0.113101564044797</v>
       </c>
       <c r="E11">
-        <v>1.270641296277589</v>
+        <v>1.258983589278913</v>
       </c>
       <c r="F11">
-        <v>0.5384311407340761</v>
+        <v>0.4383789993534606</v>
       </c>
       <c r="G11">
-        <v>0.0007737998754371239</v>
+        <v>0.05009627243882164</v>
       </c>
       <c r="H11">
-        <v>0.04323119952628929</v>
+        <v>0.04138970367006678</v>
       </c>
       <c r="I11">
-        <v>0.01800941896470398</v>
+        <v>0.0152069552700631</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.09395810719783171</v>
+        <v>0.07691446273494229</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06829481257015768</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01144985390065667</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.314409675108891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.01229198403874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.757758109067424</v>
+        <v>5.735752054030399</v>
       </c>
       <c r="C12">
-        <v>1.722171936593838</v>
+        <v>1.705136558806657</v>
       </c>
       <c r="D12">
-        <v>0.1086816003712414</v>
+        <v>0.1310440268641031</v>
       </c>
       <c r="E12">
-        <v>0.7740164416556325</v>
+        <v>0.7640513370594846</v>
       </c>
       <c r="F12">
-        <v>0.4778827174738893</v>
+        <v>0.3721634221570653</v>
       </c>
       <c r="G12">
-        <v>0.0007737801567236341</v>
+        <v>0.07397992828624922</v>
       </c>
       <c r="H12">
-        <v>0.07902571483687382</v>
+        <v>0.07724203056044843</v>
       </c>
       <c r="I12">
-        <v>0.01818710650687994</v>
+        <v>0.01525760121657882</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.07724382927185225</v>
+        <v>0.06598726288045853</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06504918923958825</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.00683240273667618</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.114011400289456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8052553907306077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.722937675306582</v>
+        <v>5.702633524242344</v>
       </c>
       <c r="C13">
-        <v>1.67844093568624</v>
+        <v>1.649718746988526</v>
       </c>
       <c r="D13">
-        <v>0.120089527952743</v>
+        <v>0.1415378848846416</v>
       </c>
       <c r="E13">
-        <v>0.3971544400353793</v>
+        <v>0.389610968334317</v>
       </c>
       <c r="F13">
-        <v>0.4122902897502385</v>
+        <v>0.3233609288752533</v>
       </c>
       <c r="G13">
-        <v>0.0007746941919375069</v>
+        <v>0.06749423972819457</v>
       </c>
       <c r="H13">
-        <v>0.1318775278202793</v>
+        <v>0.1303324335414402</v>
       </c>
       <c r="I13">
-        <v>0.01725564909670219</v>
+        <v>0.01460238111404255</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.06715628421203679</v>
+        <v>0.06331544583726495</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06469748253213181</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.004727461728812887</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9178786585695491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6679025731999388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.621748752279927</v>
+        <v>5.603696904635456</v>
       </c>
       <c r="C14">
-        <v>1.628021485436079</v>
+        <v>1.598051368564199</v>
       </c>
       <c r="D14">
-        <v>0.1270424157050485</v>
+        <v>0.145416396408919</v>
       </c>
       <c r="E14">
-        <v>0.2061115592503526</v>
+        <v>0.200288537376295</v>
       </c>
       <c r="F14">
-        <v>0.3644288539973104</v>
+        <v>0.2952584483624605</v>
       </c>
       <c r="G14">
-        <v>0.000775740383715206</v>
+        <v>0.05035890700898449</v>
       </c>
       <c r="H14">
-        <v>0.1793069857544225</v>
+        <v>0.1779831671144763</v>
       </c>
       <c r="I14">
-        <v>0.01621601514007054</v>
+        <v>0.0139280804982036</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.06342527735906733</v>
+        <v>0.06409264809733373</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06516883529846451</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.004177826472059554</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7841886641639775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5961823345688515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.560796341162359</v>
+        <v>5.543823377525655</v>
       </c>
       <c r="C15">
-        <v>1.607575261808506</v>
+        <v>1.580149855888521</v>
       </c>
       <c r="D15">
-        <v>0.1281433291594709</v>
+        <v>0.1447467470688935</v>
       </c>
       <c r="E15">
-        <v>0.1685503661484873</v>
+        <v>0.1632488408556974</v>
       </c>
       <c r="F15">
-        <v>0.3508557809923971</v>
+        <v>0.2900204846879433</v>
       </c>
       <c r="G15">
-        <v>0.0007762205673424543</v>
+        <v>0.04177480194962868</v>
       </c>
       <c r="H15">
-        <v>0.1911680506750884</v>
+        <v>0.189935697683012</v>
       </c>
       <c r="I15">
-        <v>0.01581759230837143</v>
+        <v>0.01372099016042938</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.06336234719820322</v>
+        <v>0.06498887488998406</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06544239737796342</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004246287306164387</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7492472452846499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5856644772922408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.215060290947804</v>
+        <v>5.203043965952361</v>
       </c>
       <c r="C16">
-        <v>1.514305360323306</v>
+        <v>1.510807788539125</v>
       </c>
       <c r="D16">
-        <v>0.1204644517734295</v>
+        <v>0.1290374462201385</v>
       </c>
       <c r="E16">
-        <v>0.1643176077481598</v>
+        <v>0.1604019273554798</v>
       </c>
       <c r="F16">
-        <v>0.3365643921475225</v>
+        <v>0.3062234975722617</v>
       </c>
       <c r="G16">
-        <v>0.0007784541238227034</v>
+        <v>0.01309212963508877</v>
       </c>
       <c r="H16">
-        <v>0.1760042875956742</v>
+        <v>0.1751515443924205</v>
       </c>
       <c r="I16">
-        <v>0.01364195633868182</v>
+        <v>0.01230679477211627</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.0700180396390242</v>
+        <v>0.07175946719617499</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06735445561262976</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005887817141077889</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.733865776929548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6539114476728116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.00424133620362</v>
+        <v>4.994647380755623</v>
       </c>
       <c r="C17">
-        <v>1.46973820218335</v>
+        <v>1.481426269460485</v>
       </c>
       <c r="D17">
-        <v>0.1108932374642535</v>
+        <v>0.1163759091761563</v>
       </c>
       <c r="E17">
-        <v>0.2487182528441849</v>
+        <v>0.2451982740458476</v>
       </c>
       <c r="F17">
-        <v>0.3506164384996566</v>
+        <v>0.3311472558195589</v>
       </c>
       <c r="G17">
-        <v>0.0007796308942466606</v>
+        <v>0.006873226642614583</v>
       </c>
       <c r="H17">
-        <v>0.137303069507908</v>
+        <v>0.1366173167791089</v>
       </c>
       <c r="I17">
-        <v>0.012562919023134</v>
+        <v>0.01159182785608159</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.07691674412287108</v>
+        <v>0.07792837650734263</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06957621063731489</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.007560471614866948</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7913468351485449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7402852297327769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.885139144723382</v>
+        <v>4.876366647514828</v>
       </c>
       <c r="C18">
-        <v>1.457919178028249</v>
+        <v>1.484800092149214</v>
       </c>
       <c r="D18">
-        <v>0.09879847271585618</v>
+        <v>0.103494497097202</v>
       </c>
       <c r="E18">
-        <v>0.4823472902294768</v>
+        <v>0.4784661937362031</v>
       </c>
       <c r="F18">
-        <v>0.3933682184514353</v>
+        <v>0.3746928409584669</v>
       </c>
       <c r="G18">
-        <v>0.0007799322177684739</v>
+        <v>0.005552612400323564</v>
       </c>
       <c r="H18">
-        <v>0.08517754043973724</v>
+        <v>0.08452024400732938</v>
       </c>
       <c r="I18">
-        <v>0.0120334739441077</v>
+        <v>0.0111306062278933</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.08674257379473271</v>
+        <v>0.08589185938368615</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07277859573110534</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01010840895798903</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9291191237634706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8780419466838651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.848312181631798</v>
+        <v>4.839033308343176</v>
       </c>
       <c r="C19">
-        <v>1.48238918385573</v>
+        <v>1.525448237320006</v>
       </c>
       <c r="D19">
-        <v>0.08675189616393908</v>
+        <v>0.09180668538699166</v>
       </c>
       <c r="E19">
-        <v>0.9171584788084033</v>
+        <v>0.9120909385821392</v>
       </c>
       <c r="F19">
-        <v>0.4557523805454906</v>
+        <v>0.4316400105231679</v>
       </c>
       <c r="G19">
-        <v>0.0007793992907648903</v>
+        <v>0.005720416523923966</v>
       </c>
       <c r="H19">
-        <v>0.042682334290987</v>
+        <v>0.04192343744009719</v>
       </c>
       <c r="I19">
-        <v>0.01250410674956637</v>
+        <v>0.01154446109223972</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.09999215601445677</v>
+        <v>0.09593428316933483</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07683903194327435</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01376399679593021</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.124558080341757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.054642759753932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.043849148682341</v>
+        <v>5.030154249917473</v>
       </c>
       <c r="C20">
-        <v>1.592835420112465</v>
+        <v>1.655948026947499</v>
       </c>
       <c r="D20">
-        <v>0.07383217127937769</v>
+        <v>0.08167764091663798</v>
       </c>
       <c r="E20">
-        <v>1.896673519717609</v>
+        <v>1.886983854239475</v>
       </c>
       <c r="F20">
-        <v>0.5772388175383583</v>
+        <v>0.5280909259306199</v>
       </c>
       <c r="G20">
-        <v>0.0007765352774088701</v>
+        <v>0.009390542000135227</v>
       </c>
       <c r="H20">
-        <v>0.0256551969589669</v>
+        <v>0.02433432512446387</v>
       </c>
       <c r="I20">
-        <v>0.01506501823360828</v>
+        <v>0.01343388596652506</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.123218737747802</v>
+        <v>0.1096768400497883</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08146214849589928</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02077315629190402</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.492876065357223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.340685910124591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.673378470832859</v>
+        <v>5.648572795797406</v>
       </c>
       <c r="C21">
-        <v>1.787894258975882</v>
+        <v>1.807988658570196</v>
       </c>
       <c r="D21">
-        <v>0.08057702095558028</v>
+        <v>0.1016828931600031</v>
       </c>
       <c r="E21">
-        <v>2.228021765934216</v>
+        <v>2.21044272518121</v>
       </c>
       <c r="F21">
-        <v>0.6455498251076648</v>
+        <v>0.5085242450125875</v>
       </c>
       <c r="G21">
-        <v>0.0007719767338736803</v>
+        <v>0.0722591752090409</v>
       </c>
       <c r="H21">
-        <v>0.03335334174927151</v>
+        <v>0.03084924108482356</v>
       </c>
       <c r="I21">
-        <v>0.02002361248681872</v>
+        <v>0.01663706199373483</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1191057721013316</v>
+        <v>0.08677471271315262</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07114594197209456</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01680814854512391</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.651961472329276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.222888328228436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.085151087334964</v>
+        <v>6.052603861867681</v>
       </c>
       <c r="C22">
-        <v>1.907642685857866</v>
+        <v>1.894381773758994</v>
       </c>
       <c r="D22">
-        <v>0.08539144424879908</v>
+        <v>0.1165840934892373</v>
       </c>
       <c r="E22">
-        <v>2.393700126204791</v>
+        <v>2.370901221090406</v>
       </c>
       <c r="F22">
-        <v>0.6885528048437521</v>
+        <v>0.490498775749117</v>
       </c>
       <c r="G22">
-        <v>0.0007691175765502992</v>
+        <v>0.1629522989573218</v>
       </c>
       <c r="H22">
-        <v>0.03838114439590345</v>
+        <v>0.03504265059687839</v>
       </c>
       <c r="I22">
-        <v>0.02331189813898948</v>
+        <v>0.01857416057303141</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1167028031966524</v>
+        <v>0.07292048965435693</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06571077770548062</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01418572087712811</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.750504365670537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.132343690530433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.865437419248337</v>
+        <v>5.837359377364805</v>
       </c>
       <c r="C23">
-        <v>1.838085312739793</v>
+        <v>1.849586939352719</v>
       </c>
       <c r="D23">
-        <v>0.08253206899254195</v>
+        <v>0.1068514535104725</v>
       </c>
       <c r="E23">
-        <v>2.305217440370669</v>
+        <v>2.285465222152183</v>
       </c>
       <c r="F23">
-        <v>0.6678532334089056</v>
+        <v>0.5102800044524542</v>
       </c>
       <c r="G23">
-        <v>0.0007706281845502068</v>
+        <v>0.09639571784092027</v>
       </c>
       <c r="H23">
-        <v>0.03567037291959707</v>
+        <v>0.03281883352452253</v>
       </c>
       <c r="I23">
-        <v>0.02128597538344845</v>
+        <v>0.01725756597320238</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1189776473016337</v>
+        <v>0.08226501145215259</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06908090642952658</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01657121002705786</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.705305266508077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.212031995519226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.034537765193591</v>
+        <v>5.020792280163334</v>
       </c>
       <c r="C24">
-        <v>1.58527790447863</v>
+        <v>1.650544398347108</v>
       </c>
       <c r="D24">
-        <v>0.07219219437100577</v>
+        <v>0.07995739052277173</v>
       </c>
       <c r="E24">
-        <v>1.972387433543219</v>
+        <v>1.962472826828119</v>
       </c>
       <c r="F24">
-        <v>0.5880914003828082</v>
+        <v>0.5383631924071395</v>
       </c>
       <c r="G24">
-        <v>0.0007764613160709608</v>
+        <v>0.009295698027042221</v>
       </c>
       <c r="H24">
-        <v>0.02614066173000396</v>
+        <v>0.02479866888004234</v>
       </c>
       <c r="I24">
-        <v>0.01470916303347547</v>
+        <v>0.01296492765193946</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1271836563108355</v>
+        <v>0.1128282359871431</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08267076529347861</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02195574719179305</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.529068299441207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.374440727158373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.140133444636433</v>
+        <v>4.13575871423501</v>
       </c>
       <c r="C25">
-        <v>1.315043457974525</v>
+        <v>1.363592200803964</v>
       </c>
       <c r="D25">
-        <v>0.06105323889026693</v>
+        <v>0.06563206938039201</v>
       </c>
       <c r="E25">
-        <v>1.617339345210937</v>
+        <v>1.613568711856516</v>
       </c>
       <c r="F25">
-        <v>0.5067161897711898</v>
+        <v>0.4749209214919645</v>
       </c>
       <c r="G25">
-        <v>0.0007829698829073246</v>
+        <v>0.003773928585703246</v>
       </c>
       <c r="H25">
-        <v>0.01723408449164288</v>
+        <v>0.01677127502748255</v>
       </c>
       <c r="I25">
-        <v>0.008969829754074787</v>
+        <v>0.008618543642952226</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1385428471611139</v>
+        <v>0.1270399225883363</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09236100587211205</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02027554915245933</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.353172418259931</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.252258465387428</v>
       </c>
     </row>
   </sheetData>
